--- a/xlsx/学报_intext.xlsx
+++ b/xlsx/学报_intext.xlsx
@@ -29,7 +29,7 @@
     <t>学术期刊</t>
   </si>
   <si>
-    <t>政策_政策_維基百科_学报</t>
+    <t>政策_政策_维基百科_学报</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E5%AD%A6_(%E6%9C%9F%E5%88%8A)</t>
